--- a/Standar Berat Kabel.xlsx
+++ b/Standar Berat Kabel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="42">
   <si>
     <t xml:space="preserve">TYPE </t>
   </si>
@@ -628,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1193,7 +1193,9 @@
       <c r="D41" s="2">
         <v>2.1</v>
       </c>
-      <c r="E41" s="1"/>
+      <c r="E41" s="1">
+        <v>13.9069</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="21"/>
@@ -1250,9 +1252,15 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="15"/>
       <c r="B46" s="16"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="1"/>
+      <c r="C46" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D46" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="E46" s="1">
+        <v>32.720999999999997</v>
+      </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="15"/>
